--- a/resources/variants/В8.xlsx
+++ b/resources/variants/В8.xlsx
@@ -7,8 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -183,7 +181,6 @@
     </font>
     <font>
       <name val="Times New Roman"/>
-      <color indexed="64"/>
       <sz val="14.000000"/>
     </font>
   </fonts>
@@ -205,16 +202,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,18 +219,17 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,9 +525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -539,39 +535,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -581,7 +577,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,70 +586,76 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -689,46 +691,38 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -741,13 +735,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col bestFit="1" min="22" max="22" width="10.421875"/>
-  </cols>
   <sheetData>
     <row r="1" ht="103.5">
       <c r="A1" s="1" t="s">
@@ -768,18 +759,6 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
     </row>
     <row r="2" ht="17.25">
       <c r="A2" s="1" t="s">
@@ -797,19 +776,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="17.25">
       <c r="A3" s="1" t="s">
@@ -827,19 +794,7 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" ht="17.25">
       <c r="A4" s="1" t="s">
@@ -857,19 +812,7 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -887,19 +830,7 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" ht="17.25">
       <c r="A6" s="1" t="s">
@@ -917,19 +848,7 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="17.25">
       <c r="A7" s="1" t="s">
@@ -947,19 +866,7 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" ht="17.25">
       <c r="A8" s="1" t="s">
@@ -977,19 +884,7 @@
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" ht="17.25">
       <c r="A9" s="1" t="s">
@@ -1007,19 +902,7 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" ht="17.25">
       <c r="A10" s="1" t="s">
@@ -1037,19 +920,7 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" ht="17.25">
       <c r="A11" s="1" t="s">
@@ -1067,19 +938,7 @@
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" ht="17.25">
       <c r="A12" s="1" t="s">
@@ -1097,19 +956,7 @@
       <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" ht="17.25">
       <c r="A13" s="1" t="s">
@@ -1127,19 +974,7 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" ht="17.25">
       <c r="A14" s="1" t="s">
@@ -1157,19 +992,7 @@
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" ht="17.25">
       <c r="A15" s="1" t="s">
@@ -1187,19 +1010,7 @@
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" ht="17.25">
       <c r="A16" s="1" t="s">
@@ -1217,19 +1028,7 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" ht="17.25">
       <c r="A17" s="1" t="s">
@@ -1247,377 +1046,12 @@
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" ht="17.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" ht="17.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" ht="17.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" ht="17.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" ht="17.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" ht="17.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" ht="17.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" ht="17.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" ht="14.25"/>
+      <c r="F17" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="180" verticalDpi="180" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="180" verticalDpi="180" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="180" verticalDpi="180" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/resources/variants/В8.xlsx
+++ b/resources/variants/В8.xlsx
@@ -8,33 +8,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">№ п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шифр работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер отделения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Число людей, выполняющих работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продолжительность работ (час)</t>
-  </si>
-  <si>
-    <t>Прим.</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>0-1</t>
   </si>
@@ -42,27 +21,18 @@
     <t>1</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>0-2</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
     <t>0-3</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>4.</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -75,9 +45,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -87,9 +54,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
@@ -99,33 +63,18 @@
     <t>6</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
     <t>2-7</t>
   </si>
   <si>
-    <t>8.</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>3-6</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
-    <t>11.</t>
-  </si>
-  <si>
     <t>4-6</t>
   </si>
   <si>
@@ -135,34 +84,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>12.</t>
-  </si>
-  <si>
     <t>5-7</t>
   </si>
   <si>
-    <t>13.</t>
-  </si>
-  <si>
     <t>5-8</t>
   </si>
   <si>
-    <t>14.</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>15.</t>
-  </si>
-  <si>
     <t>7-9</t>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>16.</t>
   </si>
   <si>
     <t>8-9</t>
@@ -219,12 +153,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,14 +664,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="103.5">
+    <row r="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,310 +683,227 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="17.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="17.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="17.25">
-      <c r="A5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="17.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="17.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="17.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="17.25">
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="17.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" ht="17.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" ht="17.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" ht="17.25">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" ht="17.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>